--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>170.055555</v>
+        <v>175.9726616666667</v>
       </c>
       <c r="H2">
-        <v>510.166665</v>
+        <v>527.917985</v>
       </c>
       <c r="I2">
-        <v>0.5874625966152389</v>
+        <v>0.5957262918830742</v>
       </c>
       <c r="J2">
-        <v>0.587462596615239</v>
+        <v>0.5957262918830741</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>7815.160437450085</v>
+        <v>8521.337064148063</v>
       </c>
       <c r="R2">
-        <v>70336.44393705076</v>
+        <v>76692.03357733256</v>
       </c>
       <c r="S2">
-        <v>0.3635916956656268</v>
+        <v>0.3760082885809672</v>
       </c>
       <c r="T2">
-        <v>0.3635916956656268</v>
+        <v>0.3760082885809671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>170.055555</v>
+        <v>175.9726616666667</v>
       </c>
       <c r="H3">
-        <v>510.166665</v>
+        <v>527.917985</v>
       </c>
       <c r="I3">
-        <v>0.5874625966152389</v>
+        <v>0.5957262918830742</v>
       </c>
       <c r="J3">
-        <v>0.587462596615239</v>
+        <v>0.5957262918830741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>1164.86604034264</v>
+        <v>1205.397716082871</v>
       </c>
       <c r="R3">
-        <v>10483.79436308376</v>
+        <v>10848.57944474584</v>
       </c>
       <c r="S3">
-        <v>0.0541941041673196</v>
+        <v>0.05318878115861041</v>
       </c>
       <c r="T3">
-        <v>0.0541941041673196</v>
+        <v>0.05318878115861039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>170.055555</v>
+        <v>175.9726616666667</v>
       </c>
       <c r="H4">
-        <v>510.166665</v>
+        <v>527.917985</v>
       </c>
       <c r="I4">
-        <v>0.5874625966152389</v>
+        <v>0.5957262918830742</v>
       </c>
       <c r="J4">
-        <v>0.587462596615239</v>
+        <v>0.5957262918830741</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>3647.089317974191</v>
+        <v>3773.990297582376</v>
       </c>
       <c r="R4">
-        <v>32823.80386176772</v>
+        <v>33965.91267824139</v>
       </c>
       <c r="S4">
-        <v>0.1696767967822925</v>
+        <v>0.1665292221434966</v>
       </c>
       <c r="T4">
-        <v>0.1696767967822925</v>
+        <v>0.1665292221434966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>209.252853</v>
       </c>
       <c r="I5">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="J5">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>3205.510532894497</v>
+        <v>3377.634675673393</v>
       </c>
       <c r="R5">
-        <v>28849.59479605047</v>
+        <v>30398.71208106053</v>
       </c>
       <c r="S5">
-        <v>0.1491328321993365</v>
+        <v>0.149039830755557</v>
       </c>
       <c r="T5">
-        <v>0.1491328321993366</v>
+        <v>0.149039830755557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>209.252853</v>
       </c>
       <c r="I6">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="J6">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
         <v>477.788062268848</v>
@@ -818,10 +818,10 @@
         <v>4300.092560419632</v>
       </c>
       <c r="S6">
-        <v>0.02222856115616808</v>
+        <v>0.02108263882131592</v>
       </c>
       <c r="T6">
-        <v>0.02222856115616808</v>
+        <v>0.02108263882131591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>209.252853</v>
       </c>
       <c r="I7">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="J7">
-        <v>0.2409569907365996</v>
+        <v>0.2361302886539166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
         <v>1495.910841081558</v>
@@ -880,10 +880,10 @@
         <v>13463.19756973402</v>
       </c>
       <c r="S7">
-        <v>0.06959559738109491</v>
+        <v>0.06600781907704366</v>
       </c>
       <c r="T7">
-        <v>0.06959559738109493</v>
+        <v>0.06600781907704363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.66818733333333</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H8">
         <v>149.004562</v>
       </c>
       <c r="I8">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="J8">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>2282.576729982893</v>
+        <v>2405.142717192611</v>
       </c>
       <c r="R8">
-        <v>20543.19056984604</v>
+        <v>21646.2844547335</v>
       </c>
       <c r="S8">
-        <v>0.1061943577977483</v>
+        <v>0.1061281334228017</v>
       </c>
       <c r="T8">
-        <v>0.1061943577977483</v>
+        <v>0.1061281334228017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.66818733333333</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H9">
         <v>149.004562</v>
       </c>
       <c r="I9">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="J9">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>340.2228448813475</v>
+        <v>340.2228448813476</v>
       </c>
       <c r="R9">
         <v>3062.005603932128</v>
       </c>
       <c r="S9">
-        <v>0.01582849156644492</v>
+        <v>0.01501250433787096</v>
       </c>
       <c r="T9">
-        <v>0.01582849156644492</v>
+        <v>0.01501250433787096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.66818733333333</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H10">
         <v>149.004562</v>
       </c>
       <c r="I10">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="J10">
-        <v>0.1715804126481615</v>
+        <v>0.1681434194630093</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
         <v>1065.206693580465</v>
       </c>
       <c r="R10">
-        <v>9586.860242224189</v>
+        <v>9586.860242224187</v>
       </c>
       <c r="S10">
-        <v>0.0495575632839682</v>
+        <v>0.04700278170233663</v>
       </c>
       <c r="T10">
-        <v>0.0495575632839682</v>
+        <v>0.04700278170233662</v>
       </c>
     </row>
   </sheetData>
